--- a/biology/Zoologie/Aristelliger/Aristelliger.xlsx
+++ b/biology/Zoologie/Aristelliger/Aristelliger.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Aristelliger est un genre de geckos de la famille des Sphaerodactylidae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Aristelliger est un genre de geckos de la famille des Sphaerodactylidae.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les espèces de ce genre se rencontrent dans le nord de l'Amérique du Sud, en Amérique centrale et dans les Caraïbes[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les espèces de ce genre se rencontrent dans le nord de l'Amérique du Sud, en Amérique centrale et dans les Caraïbes.
 </t>
         </is>
       </c>
@@ -542,7 +556,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Ce sont des espèces nocturnes et arboricoles.
 </t>
@@ -573,9 +589,11 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Selon The Reptile Database   (30 mai 2012)[2] :
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Selon The Reptile Database   (30 mai 2012) :
 Aristelliger barbouri Noble &amp; Klingel, 1932
 Aristelliger cochranae Grant, 1931
 Aristelliger expectatus Cochran, 1933
@@ -611,7 +629,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Cope, 1862 "1861" : On the genera Panolopus, Centropyx, Aristelliger and Sphaerodactylus. Proceedings of the Academy of Natural Sciences of Philadelphia, vol. 13, p. 494-500 (texte intégral).</t>
         </is>
